--- a/BullseyeLabs/Bullseye Test Lab.xlsx
+++ b/BullseyeLabs/Bullseye Test Lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinevans/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelyfriedman/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD7BD3BA-DBEC-D848-8229-D887A58275A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F16F4F36-6A35-2D4B-92C3-7E2A63E347C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="16360" windowHeight="16020" xr2:uid="{E230F242-CB13-7548-857E-0305ADDA233D}"/>
+    <workbookView xWindow="34200" yWindow="2340" windowWidth="18000" windowHeight="16020" xr2:uid="{E230F242-CB13-7548-857E-0305ADDA233D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bullseye Test Lab Links" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1c7L5KPzREajvaaAmR4X5R7315mjkRJ0c/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>What is the public sentiement around DEI?</t>
   </si>
   <si>
@@ -63,29 +60,40 @@
     <t>Target 360</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1XdTdm3564ZPilsq7M6kUQIH93ZHh8-To/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1eWhEid1NO9RKToHwU7odcKIVXz39USXd/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rF3MRgIzFOeoOagMRzLaLW_yBalNfKU5/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1re3BFBA42jpjsXY68Bv4eZhPNGbJJPTs/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1HKbTsiyLFhSQRcPSpCyVBQ_QxC2MUR50/view?usp=drive_link</t>
+    <t>https://jnfriedman5.github.io/BullseyeLabs/?pdf=Creative%20Test.pdf</t>
+  </si>
+  <si>
+    <t>https://jnfriedman5.github.io/BullseyeLabs/?pdf=DEI.pdf</t>
+  </si>
+  <si>
+    <t>https://jnfriedman5.github.io/BullseyeLabs/?pdf=Taffis.pdf</t>
+  </si>
+  <si>
+    <t>https://jnfriedman5.github.io/BullseyeLabs/?pdf=Equality%20Act%202.pdf</t>
+  </si>
+  <si>
+    <t>https://jnfriedman5.github.io/BullseyeLabs/?pdf=Equality%20Act%201.pdf</t>
+  </si>
+  <si>
+    <t>https://jnfriedman5.github.io/BullseyeLabs/?pdf=Target_Essence Flash Poll_27June2025(Sent).pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,10 +116,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -119,8 +128,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -137,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +190,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A70677F-3281-0043-B8BE-5EB342484BF8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,8 +477,8 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -473,10 +486,10 @@
         <v>45778</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -484,10 +497,10 @@
         <v>45778</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -495,9 +508,9 @@
         <v>45778</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -506,10 +519,10 @@
         <v>45778</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -517,16 +530,20 @@
         <v>45748</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{BF2F7490-2313-CB47-8C65-CEE5D1724AE8}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{07775B13-F067-D04B-8EEE-602EF07D548B}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{75655B5B-D9DD-7545-9B26-35D47C16A6E8}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{40F9C2BB-4079-8642-BE74-178D66DCF8F8}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{889D4171-E809-3148-A1B1-E7A6C2F708AA}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{893F54B8-E3C0-1941-80EE-E99E3862E75C}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{B34A712F-EB8D-E343-BF16-54DC55828263}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
